--- a/biology/Médecine/Centre_Jean-Perrin/Centre_Jean-Perrin.xlsx
+++ b/biology/Médecine/Centre_Jean-Perrin/Centre_Jean-Perrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre Jean-Perrin est un des 20 centres de lutte contre le cancer (CLCC) de France, il se situe à Clermont-Ferrand et a été ouvert en 1973[1].
-Le centre est dirigé par un conseil d'administration, avec pour directrice générale Frédérique Penault-Llorca[2].
+Le Centre Jean-Perrin est un des 20 centres de lutte contre le cancer (CLCC) de France, il se situe à Clermont-Ferrand et a été ouvert en 1973.
+Le centre est dirigé par un conseil d'administration, avec pour directrice générale Frédérique Penault-Llorca.
 Le nom du centre fait référence au physicien Jean Perrin, Prix Nobel de physique 1926.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Personnel :
 Plus de 700 professionnels au service du patient
@@ -556,7 +570,9 @@
           <t>La Direction du Centre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Directrice Générale : Pre Frédérique PENAULT-LLORCA
 Directeur Général Adjoint : M. Raphaël ZINT
